--- a/HINS_MCU_V3.0/doc/MIP.xlsx
+++ b/HINS_MCU_V3.0/doc/MIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E606E7-4200-4007-9B8E-12E71A76CC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5561D1B3-9E22-4A68-9ED3-9B7A3F4FDC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GNSS Dual Antenna Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>49</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>停止當前串流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>75 65 01 02 02 02 E1 C7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解除閒置：發送 Resume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +228,50 @@
   </si>
   <si>
     <t>75 65 0C 05 05 11 01 82 01 85 1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲存至 Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 03 03 30 03 1F 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定輸出格式為 GNSS 雙天線 Heading@50 Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 08 08 0F 01 82 01 49 00 14 E6 BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止當前串流(Set to idle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除閒置：發送 Resume (out of idle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀 GNSS Dual Antenna Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫 True Heading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -304,10 +336,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -945,26 +976,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50" style="3" customWidth="1"/>
-    <col min="9" max="9" width="71.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="9.140625" style="2"/>
+    <col min="1" max="1" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1022,7 +1053,7 @@
       <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="str">
+      <c r="I2" t="str">
         <f>"BC"&amp;" CB"&amp;" 97 "&amp;G2&amp;" "&amp;H2&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 0A 75 65 0C 04 04 41 02 01 32 9F 51 52</v>
       </c>
@@ -1042,13 +1073,13 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G13" si="0">DEC2HEX(LEN(SUBSTITUTE(H3," ",""))/2,2)</f>
+        <f t="shared" ref="G3:G14" si="0">DEC2HEX(LEN(SUBSTITUTE(H3," ",""))/2,2)</f>
         <v>0A</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="6" t="str">
+      <c r="I3" t="str">
         <f>"BC"&amp;" CB"&amp;" 97 "&amp;G3&amp;" "&amp;H3&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 0A 75 65 0C 04 04 41 02 02 33 A0 51 52</v>
       </c>
@@ -1076,7 +1107,7 @@
       <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="6" t="str">
+      <c r="I4" t="str">
         <f>"BC"&amp;" CB"&amp;" 97 "&amp;G4&amp;" "&amp;H4&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 0A 75 65 01 04 04 09 02 12 00 C6 51 52</v>
       </c>
@@ -1101,8 +1132,8 @@
       <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="6" t="str">
-        <f t="shared" ref="I5:I13" si="1">"BC"&amp;" CB"&amp;" 97 "&amp;G5&amp;" "&amp;H5&amp;" 51"&amp;" 52"</f>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I14" si="1">"BC"&amp;" CB"&amp;" 97 "&amp;G5&amp;" "&amp;H5&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 03 84 00 8E 15 51 52</v>
       </c>
     </row>
@@ -1126,7 +1157,7 @@
       <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="6" t="str">
+      <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 01 C2 00 CA 8B 51 52</v>
       </c>
@@ -1151,7 +1182,7 @@
       <c r="H7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>BC CB 97 0A 75 65 7F 04 04 02 02 12 77 A5 51 52</v>
       </c>
@@ -1176,23 +1207,23 @@
       <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>BC CB 97 12 75 65 7F 0C 0C 02 01 12 00 00 00 01 00 00 00 01 88 21 51 52</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -1202,88 +1233,149 @@
         <v>0E</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="6" t="str">
+        <v>43</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="G10" s="5" t="str">
         <f t="shared" si="0"/>
+        <v>0E</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 14 E6 BF 51 52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>0B</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="6" t="str">
+      <c r="H11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="5" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H11," ",""))/2,2)</f>
-        <v>08</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="6" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G11&amp;" "&amp;H11&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 08 75 65 01 02 02 06 E5 CB 51 52</v>
-      </c>
-    </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H12," ",""))/2,2)</f>
+        <v>08</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G12&amp;" "&amp;H12&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 08 75 65 01 02 02 06 E5 CB 51 52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="G13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="6" t="str">
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>BC CB 97 08 75 65 01 02 02 02 E1 C7 51 52</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>09</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>BC CB 97 09 75 65 0C 03 03 30 03 1F 45 51 52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1300,9 +1392,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/HINS_MCU_V3.0/doc/MIP.xlsx
+++ b/HINS_MCU_V3.0/doc/MIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5561D1B3-9E22-4A68-9ED3-9B7A3F4FDC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE8FCCE-1534-4D49-9B08-BF438FF1AD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,34 @@
   </si>
   <si>
     <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打開外部航向輸入選項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0D 06 06 50 01 00 05 01 4A 74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0D 13 13 52 01 00 00 08 00 00 00 00 00 00 00 00 00 00 00 00 02 6A 6E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定航向更新模式勾選為 External</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,26 +1004,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="9.125" style="2"/>
+    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1073,7 +1101,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G14" si="0">DEC2HEX(LEN(SUBSTITUTE(H3," ",""))/2,2)</f>
+        <f t="shared" ref="G3:G16" si="0">DEC2HEX(LEN(SUBSTITUTE(H3," ",""))/2,2)</f>
         <v>0A</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1133,7 +1161,7 @@
         <v>28</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I14" si="1">"BC"&amp;" CB"&amp;" 97 "&amp;G5&amp;" "&amp;H5&amp;" 51"&amp;" 52"</f>
+        <f t="shared" ref="I5:I16" si="1">"BC"&amp;" CB"&amp;" 97 "&amp;G5&amp;" "&amp;H5&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 03 84 00 8E 15 51 52</v>
       </c>
     </row>
@@ -1356,31 +1384,73 @@
         <v>BC CB 97 09 75 65 0C 03 03 30 03 1F 45 51 52</v>
       </c>
     </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0C</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>BC CB 97 0C 75 65 0D 06 06 50 01 00 05 01 4A 74 51 52</v>
+      </c>
+    </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>BC CB 97 19 75 65 0D 13 13 52 01 00 00 08 00 00 00 00 00 00 00 00 00 00 00 00 02 6A 6E 51 52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1392,9 +1462,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="34.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
